--- a/Code/Results/Cases/Case_4_230/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_230/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013314396363955</v>
+        <v>1.050222900496282</v>
       </c>
       <c r="D2">
-        <v>1.032126126356803</v>
+        <v>1.055335383089955</v>
       </c>
       <c r="E2">
-        <v>1.031016433049276</v>
+        <v>1.06314552432251</v>
       </c>
       <c r="F2">
-        <v>1.037742680482474</v>
+        <v>1.069026535565896</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047790687884609</v>
+        <v>1.039133495402463</v>
       </c>
       <c r="J2">
-        <v>1.035104040266063</v>
+        <v>1.055257193044946</v>
       </c>
       <c r="K2">
-        <v>1.043155326255869</v>
+        <v>1.058076123516346</v>
       </c>
       <c r="L2">
-        <v>1.042059931264755</v>
+        <v>1.065864955498188</v>
       </c>
       <c r="M2">
-        <v>1.048700097267379</v>
+        <v>1.07173014323987</v>
       </c>
       <c r="N2">
-        <v>1.03657400673135</v>
+        <v>1.056755779298761</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018667651259943</v>
+        <v>1.051356832163683</v>
       </c>
       <c r="D3">
-        <v>1.03625256541123</v>
+        <v>1.056226043461944</v>
       </c>
       <c r="E3">
-        <v>1.035897244969864</v>
+        <v>1.064233947328826</v>
       </c>
       <c r="F3">
-        <v>1.042647313581726</v>
+        <v>1.070117763653245</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049079558691021</v>
+        <v>1.039335849661249</v>
       </c>
       <c r="J3">
-        <v>1.038662037703073</v>
+        <v>1.056039819123046</v>
       </c>
       <c r="K3">
-        <v>1.046441684660913</v>
+        <v>1.058780007779063</v>
       </c>
       <c r="L3">
-        <v>1.04609052704744</v>
+        <v>1.066767645677375</v>
       </c>
       <c r="M3">
-        <v>1.052762113068633</v>
+        <v>1.072636779683848</v>
       </c>
       <c r="N3">
-        <v>1.040137056932813</v>
+        <v>1.057539516795661</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022054958015607</v>
+        <v>1.052090816750303</v>
       </c>
       <c r="D4">
-        <v>1.03886545287473</v>
+        <v>1.056802347155839</v>
       </c>
       <c r="E4">
-        <v>1.038991139503033</v>
+        <v>1.064938798607127</v>
       </c>
       <c r="F4">
-        <v>1.045755988204029</v>
+        <v>1.070824366058787</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049883866102225</v>
+        <v>1.039465404864747</v>
       </c>
       <c r="J4">
-        <v>1.040910840071757</v>
+        <v>1.056545922617908</v>
       </c>
       <c r="K4">
-        <v>1.048516387034133</v>
+        <v>1.059234818642775</v>
       </c>
       <c r="L4">
-        <v>1.04864069327516</v>
+        <v>1.067351717527627</v>
       </c>
       <c r="M4">
-        <v>1.055331845607938</v>
+        <v>1.073223340267713</v>
       </c>
       <c r="N4">
-        <v>1.042389052858801</v>
+        <v>1.058046339015537</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02346139456652</v>
+        <v>1.052399445465832</v>
       </c>
       <c r="D5">
-        <v>1.039950721074181</v>
+        <v>1.057044621779297</v>
       </c>
       <c r="E5">
-        <v>1.040277027705957</v>
+        <v>1.065235254257799</v>
       </c>
       <c r="F5">
-        <v>1.047047937004717</v>
+        <v>1.071121542516764</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050215078871214</v>
+        <v>1.039519538966206</v>
       </c>
       <c r="J5">
-        <v>1.041843908009252</v>
+        <v>1.056758614835401</v>
       </c>
       <c r="K5">
-        <v>1.049376621269152</v>
+        <v>1.05942586553443</v>
       </c>
       <c r="L5">
-        <v>1.049699442935778</v>
+        <v>1.06759725437672</v>
       </c>
       <c r="M5">
-        <v>1.056398638003356</v>
+        <v>1.073469907818891</v>
       </c>
       <c r="N5">
-        <v>1.043323445859791</v>
+        <v>1.058259333280374</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023696531210897</v>
+        <v>1.052451269213396</v>
       </c>
       <c r="D6">
-        <v>1.040132183031873</v>
+        <v>1.057085300543425</v>
       </c>
       <c r="E6">
-        <v>1.04049208416791</v>
+        <v>1.065285038451291</v>
       </c>
       <c r="F6">
-        <v>1.047264002066042</v>
+        <v>1.071171446834199</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050270290509019</v>
+        <v>1.039528608910792</v>
       </c>
       <c r="J6">
-        <v>1.041999864434991</v>
+        <v>1.056794322473987</v>
       </c>
       <c r="K6">
-        <v>1.049520368422567</v>
+        <v>1.059457934019756</v>
       </c>
       <c r="L6">
-        <v>1.049876443986298</v>
+        <v>1.067638480686181</v>
       </c>
       <c r="M6">
-        <v>1.056576978740448</v>
+        <v>1.073511306273572</v>
       </c>
       <c r="N6">
-        <v>1.043479623761544</v>
+        <v>1.058295091627904</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022073819030765</v>
+        <v>1.052094940419574</v>
       </c>
       <c r="D7">
-        <v>1.038880005462406</v>
+        <v>1.056805584455157</v>
       </c>
       <c r="E7">
-        <v>1.039008378913187</v>
+        <v>1.064942759326972</v>
       </c>
       <c r="F7">
-        <v>1.04577330919863</v>
+        <v>1.070828336470547</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049888318726689</v>
+        <v>1.039466129507699</v>
       </c>
       <c r="J7">
-        <v>1.040923355611326</v>
+        <v>1.056548764911257</v>
       </c>
       <c r="K7">
-        <v>1.048527928012835</v>
+        <v>1.059237372032262</v>
       </c>
       <c r="L7">
-        <v>1.048654892089556</v>
+        <v>1.067354998430357</v>
       </c>
       <c r="M7">
-        <v>1.055346152608373</v>
+        <v>1.073226635003953</v>
       </c>
       <c r="N7">
-        <v>1.042401586171872</v>
+        <v>1.058049185345269</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015139883167322</v>
+        <v>1.050606065550721</v>
       </c>
       <c r="D8">
-        <v>1.033532830036776</v>
+        <v>1.055636388465457</v>
       </c>
       <c r="E8">
-        <v>1.032679623503497</v>
+        <v>1.063513244196045</v>
       </c>
       <c r="F8">
-        <v>1.039414051865397</v>
+        <v>1.069395216636061</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048232528932941</v>
+        <v>1.039202167928341</v>
       </c>
       <c r="J8">
-        <v>1.036317842881389</v>
+        <v>1.055521748960747</v>
       </c>
       <c r="K8">
-        <v>1.04427695589388</v>
+        <v>1.058314138856914</v>
       </c>
       <c r="L8">
-        <v>1.04343440140348</v>
+        <v>1.066170029886706</v>
       </c>
       <c r="M8">
-        <v>1.050085344284261</v>
+        <v>1.072036564662558</v>
       </c>
       <c r="N8">
-        <v>1.037789533085598</v>
+        <v>1.057020710914308</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002298483412998</v>
+        <v>1.047984405528624</v>
       </c>
       <c r="D9">
-        <v>1.023648267503798</v>
+        <v>1.053576028363411</v>
       </c>
       <c r="E9">
-        <v>1.021005561494102</v>
+        <v>1.060998611872022</v>
       </c>
       <c r="F9">
-        <v>1.027681451580005</v>
+        <v>1.066873745134033</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045078525541842</v>
+        <v>1.038726460102374</v>
       </c>
       <c r="J9">
-        <v>1.02777033657623</v>
+        <v>1.053709655974009</v>
       </c>
       <c r="K9">
-        <v>1.036368975532639</v>
+        <v>1.05668231707454</v>
       </c>
       <c r="L9">
-        <v>1.033766789148752</v>
+        <v>1.064081740923017</v>
       </c>
       <c r="M9">
-        <v>1.040340832091639</v>
+        <v>1.069938792184515</v>
       </c>
       <c r="N9">
-        <v>1.029229888341074</v>
+        <v>1.055206044547679</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9932641121101549</v>
+        <v>1.046237890549425</v>
       </c>
       <c r="D10">
-        <v>1.016711566648116</v>
+        <v>1.052202411375342</v>
       </c>
       <c r="E10">
-        <v>1.012827667078719</v>
+        <v>1.059325115291882</v>
       </c>
       <c r="F10">
-        <v>1.019461418630006</v>
+        <v>1.065195364953178</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042803431593206</v>
+        <v>1.038402220907781</v>
       </c>
       <c r="J10">
-        <v>1.021747552472137</v>
+        <v>1.052500002945192</v>
       </c>
       <c r="K10">
-        <v>1.030785504748045</v>
+        <v>1.055591102211664</v>
       </c>
       <c r="L10">
-        <v>1.026969113193441</v>
+        <v>1.062689394923283</v>
       </c>
       <c r="M10">
-        <v>1.033487962205921</v>
+        <v>1.068539795454232</v>
       </c>
       <c r="N10">
-        <v>1.02319855119273</v>
+        <v>1.053994673672812</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9892263446163946</v>
+        <v>1.045481919507163</v>
       </c>
       <c r="D11">
-        <v>1.013616681701989</v>
+        <v>1.051607612089061</v>
       </c>
       <c r="E11">
-        <v>1.009181931043905</v>
+        <v>1.058601164745231</v>
       </c>
       <c r="F11">
-        <v>1.01579672809638</v>
+        <v>1.064469223601198</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041774051545198</v>
+        <v>1.038260139049941</v>
       </c>
       <c r="J11">
-        <v>1.019054291619602</v>
+        <v>1.051975830647689</v>
       </c>
       <c r="K11">
-        <v>1.028286296235047</v>
+        <v>1.055117803886651</v>
       </c>
       <c r="L11">
-        <v>1.023932742363466</v>
+        <v>1.062086455710754</v>
       </c>
       <c r="M11">
-        <v>1.030426765719832</v>
+        <v>1.067933899237262</v>
       </c>
       <c r="N11">
-        <v>1.020501465600863</v>
+        <v>1.053469756990523</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9877063707130541</v>
+        <v>1.045201159590201</v>
       </c>
       <c r="D12">
-        <v>1.012452563152271</v>
+        <v>1.051386675129018</v>
       </c>
       <c r="E12">
-        <v>1.007811003154253</v>
+        <v>1.058332359853864</v>
       </c>
       <c r="F12">
-        <v>1.014418656393988</v>
+        <v>1.064199593562016</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04138473354483</v>
+        <v>1.038207110559899</v>
       </c>
       <c r="J12">
-        <v>1.018040288365144</v>
+        <v>1.051781071690233</v>
       </c>
       <c r="K12">
-        <v>1.027345018090267</v>
+        <v>1.054941880299131</v>
       </c>
       <c r="L12">
-        <v>1.022790071222403</v>
+        <v>1.06186249035411</v>
       </c>
       <c r="M12">
-        <v>1.029274734808568</v>
+        <v>1.067708823978319</v>
       </c>
       <c r="N12">
-        <v>1.019486022345475</v>
+        <v>1.053274721453008</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9880333443627205</v>
+        <v>1.045261381686986</v>
       </c>
       <c r="D13">
-        <v>1.012702942621917</v>
+        <v>1.051434066946962</v>
       </c>
       <c r="E13">
-        <v>1.008105846566805</v>
+        <v>1.058390014778035</v>
       </c>
       <c r="F13">
-        <v>1.014715036795403</v>
+        <v>1.064257425997449</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041468563853035</v>
+        <v>1.038218496797074</v>
       </c>
       <c r="J13">
-        <v>1.01825842450069</v>
+        <v>1.051822850777643</v>
       </c>
       <c r="K13">
-        <v>1.027547524034328</v>
+        <v>1.054979621915202</v>
       </c>
       <c r="L13">
-        <v>1.023035863744649</v>
+        <v>1.06191053199898</v>
       </c>
       <c r="M13">
-        <v>1.029522541281613</v>
+        <v>1.067757104222237</v>
       </c>
       <c r="N13">
-        <v>1.019704468259355</v>
+        <v>1.053316559871514</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9891011221952054</v>
+        <v>1.045458710965736</v>
       </c>
       <c r="D14">
-        <v>1.013520756970846</v>
+        <v>1.051589349411736</v>
       </c>
       <c r="E14">
-        <v>1.00906895736592</v>
+        <v>1.058578943158075</v>
       </c>
       <c r="F14">
-        <v>1.015683165995153</v>
+        <v>1.064446934038979</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041742014286817</v>
+        <v>1.038255760858393</v>
       </c>
       <c r="J14">
-        <v>1.018970756114413</v>
+        <v>1.051959732996708</v>
       </c>
       <c r="K14">
-        <v>1.028208758613394</v>
+        <v>1.055103264426479</v>
       </c>
       <c r="L14">
-        <v>1.023838596555122</v>
+        <v>1.062067942806422</v>
       </c>
       <c r="M14">
-        <v>1.030331849048193</v>
+        <v>1.067915294823119</v>
       </c>
       <c r="N14">
-        <v>1.020417811465675</v>
+        <v>1.053453636479031</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.989756303378884</v>
+        <v>1.045580297504489</v>
       </c>
       <c r="D15">
-        <v>1.014022686603227</v>
+        <v>1.051685023798089</v>
       </c>
       <c r="E15">
-        <v>1.009660111791454</v>
+        <v>1.058695361752786</v>
       </c>
       <c r="F15">
-        <v>1.016277398842019</v>
+        <v>1.064563708275385</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041909564017418</v>
+        <v>1.038278686958419</v>
       </c>
       <c r="J15">
-        <v>1.019407819659324</v>
+        <v>1.052044062952829</v>
       </c>
       <c r="K15">
-        <v>1.028614427330425</v>
+        <v>1.055179428819489</v>
       </c>
       <c r="L15">
-        <v>1.024331194789381</v>
+        <v>1.062164927880143</v>
       </c>
       <c r="M15">
-        <v>1.030828480015987</v>
+        <v>1.068012758826003</v>
       </c>
       <c r="N15">
-        <v>1.020855495690951</v>
+        <v>1.053538086193362</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9935293290281706</v>
+        <v>1.04628806771112</v>
       </c>
       <c r="D16">
-        <v>1.016914972035738</v>
+        <v>1.052241885956531</v>
       </c>
       <c r="E16">
-        <v>1.013067332790795</v>
+        <v>1.059373175904697</v>
       </c>
       <c r="F16">
-        <v>1.019702327623628</v>
+        <v>1.065243569362678</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042870789785301</v>
+        <v>1.038411614935001</v>
       </c>
       <c r="J16">
-        <v>1.021924431650393</v>
+        <v>1.05253478241058</v>
       </c>
       <c r="K16">
-        <v>1.030949591813455</v>
+        <v>1.055622496705747</v>
       </c>
       <c r="L16">
-        <v>1.027168596861719</v>
+        <v>1.062729409060714</v>
       </c>
       <c r="M16">
-        <v>1.033689074012453</v>
+        <v>1.0685800042169</v>
       </c>
       <c r="N16">
-        <v>1.023375681559707</v>
+        <v>1.05402950252903</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9958615024820034</v>
+        <v>1.046732107984098</v>
       </c>
       <c r="D17">
-        <v>1.01870423049592</v>
+        <v>1.0525911871757</v>
       </c>
       <c r="E17">
-        <v>1.015175882122975</v>
+        <v>1.059798533891721</v>
       </c>
       <c r="F17">
-        <v>1.02182179701481</v>
+        <v>1.065670190986019</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043461681862102</v>
+        <v>1.038494546292594</v>
       </c>
       <c r="J17">
-        <v>1.023479651293653</v>
+        <v>1.052842494627582</v>
       </c>
       <c r="K17">
-        <v>1.032392066605051</v>
+        <v>1.055900208573064</v>
       </c>
       <c r="L17">
-        <v>1.028922954414575</v>
+        <v>1.063083481183089</v>
       </c>
       <c r="M17">
-        <v>1.035457731687354</v>
+        <v>1.068935789629548</v>
       </c>
       <c r="N17">
-        <v>1.024933109793246</v>
+        <v>1.054337651732675</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9972097703319012</v>
+        <v>1.046991136380627</v>
       </c>
       <c r="D18">
-        <v>1.019739130234035</v>
+        <v>1.052794927303891</v>
       </c>
       <c r="E18">
-        <v>1.01639573861451</v>
+        <v>1.060046704072691</v>
       </c>
       <c r="F18">
-        <v>1.023047954418593</v>
+        <v>1.065919090871031</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043802092217823</v>
+        <v>1.03854275625042</v>
       </c>
       <c r="J18">
-        <v>1.024378605199028</v>
+        <v>1.053021940870745</v>
       </c>
       <c r="K18">
-        <v>1.033225622492429</v>
+        <v>1.056062116496465</v>
       </c>
       <c r="L18">
-        <v>1.029937337012898</v>
+        <v>1.063290001212799</v>
       </c>
       <c r="M18">
-        <v>1.036480365863063</v>
+        <v>1.069143301540456</v>
       </c>
       <c r="N18">
-        <v>1.025833340316279</v>
+        <v>1.054517352810086</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9976674876657957</v>
+        <v>1.047079463013986</v>
       </c>
       <c r="D19">
-        <v>1.020090545249728</v>
+        <v>1.052864397188455</v>
       </c>
       <c r="E19">
-        <v>1.0168100073068</v>
+        <v>1.06013133490472</v>
       </c>
       <c r="F19">
-        <v>1.023464359841189</v>
+        <v>1.066003969264177</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043917452060654</v>
+        <v>1.038559167035487</v>
       </c>
       <c r="J19">
-        <v>1.024683760598879</v>
+        <v>1.053083121119462</v>
       </c>
       <c r="K19">
-        <v>1.033508538583696</v>
+        <v>1.056117309904789</v>
       </c>
       <c r="L19">
-        <v>1.030281730049457</v>
+        <v>1.063360418492779</v>
       </c>
       <c r="M19">
-        <v>1.036827557285093</v>
+        <v>1.069214055760521</v>
       </c>
       <c r="N19">
-        <v>1.026138929071799</v>
+        <v>1.054578619941773</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9956125374646325</v>
+        <v>1.046684463856216</v>
       </c>
       <c r="D20">
-        <v>1.018513170270516</v>
+        <v>1.052553710600869</v>
       </c>
       <c r="E20">
-        <v>1.014950698710217</v>
+        <v>1.059752890173766</v>
       </c>
       <c r="F20">
-        <v>1.021595449055005</v>
+        <v>1.065624412452043</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043398726197522</v>
+        <v>1.03848566535042</v>
       </c>
       <c r="J20">
-        <v>1.023313642427388</v>
+        <v>1.052809483856639</v>
       </c>
       <c r="K20">
-        <v>1.03223811603949</v>
+        <v>1.055870420652794</v>
       </c>
       <c r="L20">
-        <v>1.028735655514383</v>
+        <v>1.06304549303639</v>
       </c>
       <c r="M20">
-        <v>1.0352689077663</v>
+        <v>1.068897618433394</v>
       </c>
       <c r="N20">
-        <v>1.024766865175351</v>
+        <v>1.054304594082652</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9887872556435332</v>
+        <v>1.045400601276152</v>
       </c>
       <c r="D21">
-        <v>1.013280339438035</v>
+        <v>1.05154362265125</v>
       </c>
       <c r="E21">
-        <v>1.008785815908745</v>
+        <v>1.058523305629607</v>
       </c>
       <c r="F21">
-        <v>1.015398549566849</v>
+        <v>1.064391126128462</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041661684730899</v>
+        <v>1.038244794503599</v>
       </c>
       <c r="J21">
-        <v>1.018761374421092</v>
+        <v>1.051919426198756</v>
       </c>
       <c r="K21">
-        <v>1.028014405308181</v>
+        <v>1.055066858088347</v>
       </c>
       <c r="L21">
-        <v>1.023602628385737</v>
+        <v>1.062021589439081</v>
       </c>
       <c r="M21">
-        <v>1.030093948531547</v>
+        <v>1.067868712144115</v>
       </c>
       <c r="N21">
-        <v>1.020208132426333</v>
+        <v>1.053413272440803</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9843785414247429</v>
+        <v>1.044593624929417</v>
       </c>
       <c r="D22">
-        <v>1.009905661296655</v>
+        <v>1.050908528615011</v>
       </c>
       <c r="E22">
-        <v>1.004812295071587</v>
+        <v>1.057750810364543</v>
       </c>
       <c r="F22">
-        <v>1.011404303062845</v>
+        <v>1.063616237565823</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040529092811622</v>
+        <v>1.038091885914221</v>
       </c>
       <c r="J22">
-        <v>1.01582002463514</v>
+        <v>1.05135947576998</v>
       </c>
       <c r="K22">
-        <v>1.025283406464739</v>
+        <v>1.054560934897071</v>
       </c>
       <c r="L22">
-        <v>1.020289018478367</v>
+        <v>1.061377780640401</v>
       </c>
       <c r="M22">
-        <v>1.026753174013534</v>
+        <v>1.067221691221039</v>
       </c>
       <c r="N22">
-        <v>1.017262605586307</v>
+        <v>1.052852526818191</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9867272622024332</v>
+        <v>1.045021396003298</v>
       </c>
       <c r="D23">
-        <v>1.01170295606338</v>
+        <v>1.051245205054185</v>
       </c>
       <c r="E23">
-        <v>1.006928329261352</v>
+        <v>1.058160268567303</v>
       </c>
       <c r="F23">
-        <v>1.013531379572277</v>
+        <v>1.064026970722264</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041133446201834</v>
+        <v>1.03817308435516</v>
       </c>
       <c r="J23">
-        <v>1.01738707188792</v>
+        <v>1.051656348006066</v>
       </c>
       <c r="K23">
-        <v>1.026738559737612</v>
+        <v>1.054829199921696</v>
       </c>
       <c r="L23">
-        <v>1.02205411174997</v>
+        <v>1.061719079736299</v>
       </c>
       <c r="M23">
-        <v>1.028532743279456</v>
+        <v>1.067564699430958</v>
       </c>
       <c r="N23">
-        <v>1.018831878225929</v>
+        <v>1.053149820646904</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9957250711828504</v>
+        <v>1.046705992102372</v>
       </c>
       <c r="D24">
-        <v>1.018599529124335</v>
+        <v>1.052570644655966</v>
       </c>
       <c r="E24">
-        <v>1.015052480306212</v>
+        <v>1.059773514400879</v>
       </c>
       <c r="F24">
-        <v>1.021697757071843</v>
+        <v>1.065645097619442</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043427186253913</v>
+        <v>1.038489678767961</v>
       </c>
       <c r="J24">
-        <v>1.023388679907585</v>
+        <v>1.052824400117517</v>
       </c>
       <c r="K24">
-        <v>1.032307703772525</v>
+        <v>1.055883880768643</v>
       </c>
       <c r="L24">
-        <v>1.028820315279141</v>
+        <v>1.06306265825765</v>
       </c>
       <c r="M24">
-        <v>1.035354256898815</v>
+        <v>1.068914866389856</v>
       </c>
       <c r="N24">
-        <v>1.024842009217376</v>
+        <v>1.054319531526331</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005697478242207</v>
+        <v>1.048661942935193</v>
       </c>
       <c r="D25">
-        <v>1.026262001025596</v>
+        <v>1.054108689623867</v>
       </c>
       <c r="E25">
-        <v>1.024089796173811</v>
+        <v>1.06164818878365</v>
       </c>
       <c r="F25">
-        <v>1.030781377471173</v>
+        <v>1.067525147521646</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045923245382022</v>
+        <v>1.038850694144876</v>
       </c>
       <c r="J25">
-        <v>1.030034609175345</v>
+        <v>1.054178405546405</v>
       </c>
       <c r="K25">
-        <v>1.038465867082663</v>
+        <v>1.057104770128204</v>
       </c>
       <c r="L25">
-        <v>1.036325314360768</v>
+        <v>1.06462164045556</v>
       </c>
       <c r="M25">
-        <v>1.042919931213441</v>
+        <v>1.070481201562584</v>
       </c>
       <c r="N25">
-        <v>1.031497376466995</v>
+        <v>1.055675459798234</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_230/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_230/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050222900496282</v>
+        <v>1.013314396363955</v>
       </c>
       <c r="D2">
-        <v>1.055335383089955</v>
+        <v>1.032126126356803</v>
       </c>
       <c r="E2">
-        <v>1.06314552432251</v>
+        <v>1.031016433049277</v>
       </c>
       <c r="F2">
-        <v>1.069026535565896</v>
+        <v>1.037742680482473</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039133495402463</v>
+        <v>1.047790687884609</v>
       </c>
       <c r="J2">
-        <v>1.055257193044946</v>
+        <v>1.035104040266062</v>
       </c>
       <c r="K2">
-        <v>1.058076123516346</v>
+        <v>1.043155326255869</v>
       </c>
       <c r="L2">
-        <v>1.065864955498188</v>
+        <v>1.042059931264755</v>
       </c>
       <c r="M2">
-        <v>1.07173014323987</v>
+        <v>1.048700097267379</v>
       </c>
       <c r="N2">
-        <v>1.056755779298761</v>
+        <v>1.03657400673135</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051356832163683</v>
+        <v>1.018667651259943</v>
       </c>
       <c r="D3">
-        <v>1.056226043461944</v>
+        <v>1.03625256541123</v>
       </c>
       <c r="E3">
-        <v>1.064233947328826</v>
+        <v>1.035897244969863</v>
       </c>
       <c r="F3">
-        <v>1.070117763653245</v>
+        <v>1.042647313581726</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039335849661249</v>
+        <v>1.049079558691021</v>
       </c>
       <c r="J3">
-        <v>1.056039819123046</v>
+        <v>1.038662037703073</v>
       </c>
       <c r="K3">
-        <v>1.058780007779063</v>
+        <v>1.046441684660914</v>
       </c>
       <c r="L3">
-        <v>1.066767645677375</v>
+        <v>1.046090527047439</v>
       </c>
       <c r="M3">
-        <v>1.072636779683848</v>
+        <v>1.052762113068632</v>
       </c>
       <c r="N3">
-        <v>1.057539516795661</v>
+        <v>1.040137056932812</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.052090816750303</v>
+        <v>1.022054958015607</v>
       </c>
       <c r="D4">
-        <v>1.056802347155839</v>
+        <v>1.038865452874731</v>
       </c>
       <c r="E4">
-        <v>1.064938798607127</v>
+        <v>1.038991139503034</v>
       </c>
       <c r="F4">
-        <v>1.070824366058787</v>
+        <v>1.04575598820403</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039465404864747</v>
+        <v>1.049883866102226</v>
       </c>
       <c r="J4">
-        <v>1.056545922617908</v>
+        <v>1.040910840071758</v>
       </c>
       <c r="K4">
-        <v>1.059234818642775</v>
+        <v>1.048516387034134</v>
       </c>
       <c r="L4">
-        <v>1.067351717527627</v>
+        <v>1.048640693275162</v>
       </c>
       <c r="M4">
-        <v>1.073223340267713</v>
+        <v>1.055331845607939</v>
       </c>
       <c r="N4">
-        <v>1.058046339015537</v>
+        <v>1.042389052858802</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052399445465832</v>
+        <v>1.023461394566521</v>
       </c>
       <c r="D5">
-        <v>1.057044621779297</v>
+        <v>1.039950721074182</v>
       </c>
       <c r="E5">
-        <v>1.065235254257799</v>
+        <v>1.040277027705958</v>
       </c>
       <c r="F5">
-        <v>1.071121542516764</v>
+        <v>1.047047937004718</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039519538966206</v>
+        <v>1.050215078871215</v>
       </c>
       <c r="J5">
-        <v>1.056758614835401</v>
+        <v>1.041843908009252</v>
       </c>
       <c r="K5">
-        <v>1.05942586553443</v>
+        <v>1.049376621269153</v>
       </c>
       <c r="L5">
-        <v>1.06759725437672</v>
+        <v>1.049699442935779</v>
       </c>
       <c r="M5">
-        <v>1.073469907818891</v>
+        <v>1.056398638003356</v>
       </c>
       <c r="N5">
-        <v>1.058259333280374</v>
+        <v>1.043323445859792</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052451269213396</v>
+        <v>1.023696531210898</v>
       </c>
       <c r="D6">
-        <v>1.057085300543425</v>
+        <v>1.040132183031874</v>
       </c>
       <c r="E6">
-        <v>1.065285038451291</v>
+        <v>1.04049208416791</v>
       </c>
       <c r="F6">
-        <v>1.071171446834199</v>
+        <v>1.047264002066043</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039528608910792</v>
+        <v>1.050270290509019</v>
       </c>
       <c r="J6">
-        <v>1.056794322473987</v>
+        <v>1.041999864434991</v>
       </c>
       <c r="K6">
-        <v>1.059457934019756</v>
+        <v>1.049520368422568</v>
       </c>
       <c r="L6">
-        <v>1.067638480686181</v>
+        <v>1.049876443986298</v>
       </c>
       <c r="M6">
-        <v>1.073511306273572</v>
+        <v>1.056576978740448</v>
       </c>
       <c r="N6">
-        <v>1.058295091627904</v>
+        <v>1.043479623761544</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.052094940419574</v>
+        <v>1.022073819030767</v>
       </c>
       <c r="D7">
-        <v>1.056805584455157</v>
+        <v>1.038880005462407</v>
       </c>
       <c r="E7">
-        <v>1.064942759326972</v>
+        <v>1.039008378913188</v>
       </c>
       <c r="F7">
-        <v>1.070828336470547</v>
+        <v>1.045773309198632</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039466129507699</v>
+        <v>1.049888318726689</v>
       </c>
       <c r="J7">
-        <v>1.056548764911257</v>
+        <v>1.040923355611328</v>
       </c>
       <c r="K7">
-        <v>1.059237372032262</v>
+        <v>1.048527928012837</v>
       </c>
       <c r="L7">
-        <v>1.067354998430357</v>
+        <v>1.048654892089558</v>
       </c>
       <c r="M7">
-        <v>1.073226635003953</v>
+        <v>1.055346152608375</v>
       </c>
       <c r="N7">
-        <v>1.058049185345269</v>
+        <v>1.042401586171874</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050606065550721</v>
+        <v>1.015139883167323</v>
       </c>
       <c r="D8">
-        <v>1.055636388465457</v>
+        <v>1.033532830036777</v>
       </c>
       <c r="E8">
-        <v>1.063513244196045</v>
+        <v>1.032679623503497</v>
       </c>
       <c r="F8">
-        <v>1.069395216636061</v>
+        <v>1.039414051865398</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039202167928341</v>
+        <v>1.048232528932942</v>
       </c>
       <c r="J8">
-        <v>1.055521748960747</v>
+        <v>1.03631784288139</v>
       </c>
       <c r="K8">
-        <v>1.058314138856914</v>
+        <v>1.044276955893881</v>
       </c>
       <c r="L8">
-        <v>1.066170029886706</v>
+        <v>1.04343440140348</v>
       </c>
       <c r="M8">
-        <v>1.072036564662558</v>
+        <v>1.050085344284261</v>
       </c>
       <c r="N8">
-        <v>1.057020710914308</v>
+        <v>1.037789533085599</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047984405528624</v>
+        <v>1.002298483412999</v>
       </c>
       <c r="D9">
-        <v>1.053576028363411</v>
+        <v>1.023648267503798</v>
       </c>
       <c r="E9">
-        <v>1.060998611872022</v>
+        <v>1.021005561494102</v>
       </c>
       <c r="F9">
-        <v>1.066873745134033</v>
+        <v>1.027681451580005</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038726460102374</v>
+        <v>1.045078525541841</v>
       </c>
       <c r="J9">
-        <v>1.053709655974009</v>
+        <v>1.02777033657623</v>
       </c>
       <c r="K9">
-        <v>1.05668231707454</v>
+        <v>1.036368975532639</v>
       </c>
       <c r="L9">
-        <v>1.064081740923017</v>
+        <v>1.033766789148752</v>
       </c>
       <c r="M9">
-        <v>1.069938792184515</v>
+        <v>1.040340832091639</v>
       </c>
       <c r="N9">
-        <v>1.055206044547679</v>
+        <v>1.029229888341074</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046237890549425</v>
+        <v>0.993264112110155</v>
       </c>
       <c r="D10">
-        <v>1.052202411375342</v>
+        <v>1.016711566648116</v>
       </c>
       <c r="E10">
-        <v>1.059325115291882</v>
+        <v>1.01282766707872</v>
       </c>
       <c r="F10">
-        <v>1.065195364953178</v>
+        <v>1.019461418630007</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038402220907781</v>
+        <v>1.042803431593206</v>
       </c>
       <c r="J10">
-        <v>1.052500002945192</v>
+        <v>1.021747552472137</v>
       </c>
       <c r="K10">
-        <v>1.055591102211664</v>
+        <v>1.030785504748045</v>
       </c>
       <c r="L10">
-        <v>1.062689394923283</v>
+        <v>1.026969113193442</v>
       </c>
       <c r="M10">
-        <v>1.068539795454232</v>
+        <v>1.033487962205921</v>
       </c>
       <c r="N10">
-        <v>1.053994673672812</v>
+        <v>1.02319855119273</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045481919507163</v>
+        <v>0.9892263446163929</v>
       </c>
       <c r="D11">
-        <v>1.051607612089061</v>
+        <v>1.013616681701987</v>
       </c>
       <c r="E11">
-        <v>1.058601164745231</v>
+        <v>1.009181931043903</v>
       </c>
       <c r="F11">
-        <v>1.064469223601198</v>
+        <v>1.015796728096379</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038260139049941</v>
+        <v>1.041774051545197</v>
       </c>
       <c r="J11">
-        <v>1.051975830647689</v>
+        <v>1.019054291619601</v>
       </c>
       <c r="K11">
-        <v>1.055117803886651</v>
+        <v>1.028286296235045</v>
       </c>
       <c r="L11">
-        <v>1.062086455710754</v>
+        <v>1.023932742363463</v>
       </c>
       <c r="M11">
-        <v>1.067933899237262</v>
+        <v>1.03042676571983</v>
       </c>
       <c r="N11">
-        <v>1.053469756990523</v>
+        <v>1.020501465600861</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045201159590201</v>
+        <v>0.9877063707130546</v>
       </c>
       <c r="D12">
-        <v>1.051386675129018</v>
+        <v>1.012452563152271</v>
       </c>
       <c r="E12">
-        <v>1.058332359853864</v>
+        <v>1.007811003154253</v>
       </c>
       <c r="F12">
-        <v>1.064199593562016</v>
+        <v>1.014418656393989</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038207110559899</v>
+        <v>1.04138473354483</v>
       </c>
       <c r="J12">
-        <v>1.051781071690233</v>
+        <v>1.018040288365144</v>
       </c>
       <c r="K12">
-        <v>1.054941880299131</v>
+        <v>1.027345018090267</v>
       </c>
       <c r="L12">
-        <v>1.06186249035411</v>
+        <v>1.022790071222403</v>
       </c>
       <c r="M12">
-        <v>1.067708823978319</v>
+        <v>1.029274734808568</v>
       </c>
       <c r="N12">
-        <v>1.053274721453008</v>
+        <v>1.019486022345476</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045261381686986</v>
+        <v>0.9880333443627205</v>
       </c>
       <c r="D13">
-        <v>1.051434066946962</v>
+        <v>1.012702942621917</v>
       </c>
       <c r="E13">
-        <v>1.058390014778035</v>
+        <v>1.008105846566804</v>
       </c>
       <c r="F13">
-        <v>1.064257425997449</v>
+        <v>1.014715036795403</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038218496797074</v>
+        <v>1.041468563853035</v>
       </c>
       <c r="J13">
-        <v>1.051822850777643</v>
+        <v>1.01825842450069</v>
       </c>
       <c r="K13">
-        <v>1.054979621915202</v>
+        <v>1.027547524034328</v>
       </c>
       <c r="L13">
-        <v>1.06191053199898</v>
+        <v>1.023035863744649</v>
       </c>
       <c r="M13">
-        <v>1.067757104222237</v>
+        <v>1.029522541281613</v>
       </c>
       <c r="N13">
-        <v>1.053316559871514</v>
+        <v>1.019704468259355</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045458710965736</v>
+        <v>0.9891011221952043</v>
       </c>
       <c r="D14">
-        <v>1.051589349411736</v>
+        <v>1.013520756970846</v>
       </c>
       <c r="E14">
-        <v>1.058578943158075</v>
+        <v>1.009068957365919</v>
       </c>
       <c r="F14">
-        <v>1.064446934038979</v>
+        <v>1.015683165995152</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038255760858393</v>
+        <v>1.041742014286817</v>
       </c>
       <c r="J14">
-        <v>1.051959732996708</v>
+        <v>1.018970756114413</v>
       </c>
       <c r="K14">
-        <v>1.055103264426479</v>
+        <v>1.028208758613393</v>
       </c>
       <c r="L14">
-        <v>1.062067942806422</v>
+        <v>1.023838596555121</v>
       </c>
       <c r="M14">
-        <v>1.067915294823119</v>
+        <v>1.030331849048193</v>
       </c>
       <c r="N14">
-        <v>1.053453636479031</v>
+        <v>1.020417811465674</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045580297504489</v>
+        <v>0.989756303378885</v>
       </c>
       <c r="D15">
-        <v>1.051685023798089</v>
+        <v>1.014022686603228</v>
       </c>
       <c r="E15">
-        <v>1.058695361752786</v>
+        <v>1.009660111791455</v>
       </c>
       <c r="F15">
-        <v>1.064563708275385</v>
+        <v>1.01627739884202</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038278686958419</v>
+        <v>1.041909564017419</v>
       </c>
       <c r="J15">
-        <v>1.052044062952829</v>
+        <v>1.019407819659325</v>
       </c>
       <c r="K15">
-        <v>1.055179428819489</v>
+        <v>1.028614427330426</v>
       </c>
       <c r="L15">
-        <v>1.062164927880143</v>
+        <v>1.024331194789382</v>
       </c>
       <c r="M15">
-        <v>1.068012758826003</v>
+        <v>1.030828480015988</v>
       </c>
       <c r="N15">
-        <v>1.053538086193362</v>
+        <v>1.020855495690952</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04628806771112</v>
+        <v>0.993529329028171</v>
       </c>
       <c r="D16">
-        <v>1.052241885956531</v>
+        <v>1.016914972035738</v>
       </c>
       <c r="E16">
-        <v>1.059373175904697</v>
+        <v>1.013067332790796</v>
       </c>
       <c r="F16">
-        <v>1.065243569362678</v>
+        <v>1.019702327623629</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038411614935001</v>
+        <v>1.042870789785301</v>
       </c>
       <c r="J16">
-        <v>1.05253478241058</v>
+        <v>1.021924431650393</v>
       </c>
       <c r="K16">
-        <v>1.055622496705747</v>
+        <v>1.030949591813455</v>
       </c>
       <c r="L16">
-        <v>1.062729409060714</v>
+        <v>1.02716859686172</v>
       </c>
       <c r="M16">
-        <v>1.0685800042169</v>
+        <v>1.033689074012454</v>
       </c>
       <c r="N16">
-        <v>1.05402950252903</v>
+        <v>1.023375681559707</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046732107984098</v>
+        <v>0.9958615024820034</v>
       </c>
       <c r="D17">
-        <v>1.0525911871757</v>
+        <v>1.01870423049592</v>
       </c>
       <c r="E17">
-        <v>1.059798533891721</v>
+        <v>1.015175882122975</v>
       </c>
       <c r="F17">
-        <v>1.065670190986019</v>
+        <v>1.021821797014809</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038494546292594</v>
+        <v>1.043461681862102</v>
       </c>
       <c r="J17">
-        <v>1.052842494627582</v>
+        <v>1.023479651293653</v>
       </c>
       <c r="K17">
-        <v>1.055900208573064</v>
+        <v>1.032392066605051</v>
       </c>
       <c r="L17">
-        <v>1.063083481183089</v>
+        <v>1.028922954414575</v>
       </c>
       <c r="M17">
-        <v>1.068935789629548</v>
+        <v>1.035457731687354</v>
       </c>
       <c r="N17">
-        <v>1.054337651732675</v>
+        <v>1.024933109793246</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046991136380627</v>
+        <v>0.9972097703318998</v>
       </c>
       <c r="D18">
-        <v>1.052794927303891</v>
+        <v>1.019739130234034</v>
       </c>
       <c r="E18">
-        <v>1.060046704072691</v>
+        <v>1.016395738614509</v>
       </c>
       <c r="F18">
-        <v>1.065919090871031</v>
+        <v>1.023047954418592</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03854275625042</v>
+        <v>1.043802092217822</v>
       </c>
       <c r="J18">
-        <v>1.053021940870745</v>
+        <v>1.024378605199027</v>
       </c>
       <c r="K18">
-        <v>1.056062116496465</v>
+        <v>1.033225622492429</v>
       </c>
       <c r="L18">
-        <v>1.063290001212799</v>
+        <v>1.029937337012897</v>
       </c>
       <c r="M18">
-        <v>1.069143301540456</v>
+        <v>1.036480365863062</v>
       </c>
       <c r="N18">
-        <v>1.054517352810086</v>
+        <v>1.025833340316278</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047079463013986</v>
+        <v>0.997667487665796</v>
       </c>
       <c r="D19">
-        <v>1.052864397188455</v>
+        <v>1.020090545249728</v>
       </c>
       <c r="E19">
-        <v>1.06013133490472</v>
+        <v>1.0168100073068</v>
       </c>
       <c r="F19">
-        <v>1.066003969264177</v>
+        <v>1.023464359841189</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038559167035487</v>
+        <v>1.043917452060654</v>
       </c>
       <c r="J19">
-        <v>1.053083121119462</v>
+        <v>1.024683760598879</v>
       </c>
       <c r="K19">
-        <v>1.056117309904789</v>
+        <v>1.033508538583696</v>
       </c>
       <c r="L19">
-        <v>1.063360418492779</v>
+        <v>1.030281730049458</v>
       </c>
       <c r="M19">
-        <v>1.069214055760521</v>
+        <v>1.036827557285093</v>
       </c>
       <c r="N19">
-        <v>1.054578619941773</v>
+        <v>1.0261389290718</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046684463856216</v>
+        <v>0.9956125374646335</v>
       </c>
       <c r="D20">
-        <v>1.052553710600869</v>
+        <v>1.018513170270517</v>
       </c>
       <c r="E20">
-        <v>1.059752890173766</v>
+        <v>1.014950698710218</v>
       </c>
       <c r="F20">
-        <v>1.065624412452043</v>
+        <v>1.021595449055006</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03848566535042</v>
+        <v>1.043398726197522</v>
       </c>
       <c r="J20">
-        <v>1.052809483856639</v>
+        <v>1.023313642427389</v>
       </c>
       <c r="K20">
-        <v>1.055870420652794</v>
+        <v>1.032238116039491</v>
       </c>
       <c r="L20">
-        <v>1.06304549303639</v>
+        <v>1.028735655514384</v>
       </c>
       <c r="M20">
-        <v>1.068897618433394</v>
+        <v>1.035268907766301</v>
       </c>
       <c r="N20">
-        <v>1.054304594082652</v>
+        <v>1.024766865175351</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045400601276152</v>
+        <v>0.9887872556435342</v>
       </c>
       <c r="D21">
-        <v>1.05154362265125</v>
+        <v>1.013280339438035</v>
       </c>
       <c r="E21">
-        <v>1.058523305629607</v>
+        <v>1.008785815908747</v>
       </c>
       <c r="F21">
-        <v>1.064391126128462</v>
+        <v>1.01539854956685</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038244794503599</v>
+        <v>1.0416616847309</v>
       </c>
       <c r="J21">
-        <v>1.051919426198756</v>
+        <v>1.018761374421093</v>
       </c>
       <c r="K21">
-        <v>1.055066858088347</v>
+        <v>1.028014405308181</v>
       </c>
       <c r="L21">
-        <v>1.062021589439081</v>
+        <v>1.023602628385738</v>
       </c>
       <c r="M21">
-        <v>1.067868712144115</v>
+        <v>1.030093948531548</v>
       </c>
       <c r="N21">
-        <v>1.053413272440803</v>
+        <v>1.020208132426334</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044593624929417</v>
+        <v>0.9843785414247435</v>
       </c>
       <c r="D22">
-        <v>1.050908528615011</v>
+        <v>1.009905661296656</v>
       </c>
       <c r="E22">
-        <v>1.057750810364543</v>
+        <v>1.004812295071588</v>
       </c>
       <c r="F22">
-        <v>1.063616237565823</v>
+        <v>1.011404303062846</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038091885914221</v>
+        <v>1.040529092811623</v>
       </c>
       <c r="J22">
-        <v>1.05135947576998</v>
+        <v>1.015820024635141</v>
       </c>
       <c r="K22">
-        <v>1.054560934897071</v>
+        <v>1.02528340646474</v>
       </c>
       <c r="L22">
-        <v>1.061377780640401</v>
+        <v>1.020289018478367</v>
       </c>
       <c r="M22">
-        <v>1.067221691221039</v>
+        <v>1.026753174013535</v>
       </c>
       <c r="N22">
-        <v>1.052852526818191</v>
+        <v>1.017262605586308</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045021396003298</v>
+        <v>0.986727262202434</v>
       </c>
       <c r="D23">
-        <v>1.051245205054185</v>
+        <v>1.011702956063381</v>
       </c>
       <c r="E23">
-        <v>1.058160268567303</v>
+        <v>1.006928329261353</v>
       </c>
       <c r="F23">
-        <v>1.064026970722264</v>
+        <v>1.013531379572278</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03817308435516</v>
+        <v>1.041133446201834</v>
       </c>
       <c r="J23">
-        <v>1.051656348006066</v>
+        <v>1.017387071887921</v>
       </c>
       <c r="K23">
-        <v>1.054829199921696</v>
+        <v>1.026738559737612</v>
       </c>
       <c r="L23">
-        <v>1.061719079736299</v>
+        <v>1.022054111749971</v>
       </c>
       <c r="M23">
-        <v>1.067564699430958</v>
+        <v>1.028532743279457</v>
       </c>
       <c r="N23">
-        <v>1.053149820646904</v>
+        <v>1.01883187822593</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046705992102372</v>
+        <v>0.9957250711828518</v>
       </c>
       <c r="D24">
-        <v>1.052570644655966</v>
+        <v>1.018599529124336</v>
       </c>
       <c r="E24">
-        <v>1.059773514400879</v>
+        <v>1.015052480306214</v>
       </c>
       <c r="F24">
-        <v>1.065645097619442</v>
+        <v>1.021697757071845</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038489678767961</v>
+        <v>1.043427186253913</v>
       </c>
       <c r="J24">
-        <v>1.052824400117517</v>
+        <v>1.023388679907587</v>
       </c>
       <c r="K24">
-        <v>1.055883880768643</v>
+        <v>1.032307703772527</v>
       </c>
       <c r="L24">
-        <v>1.06306265825765</v>
+        <v>1.028820315279142</v>
       </c>
       <c r="M24">
-        <v>1.068914866389856</v>
+        <v>1.035354256898818</v>
       </c>
       <c r="N24">
-        <v>1.054319531526331</v>
+        <v>1.024842009217378</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048661942935193</v>
+        <v>1.005697478242205</v>
       </c>
       <c r="D25">
-        <v>1.054108689623867</v>
+        <v>1.026262001025595</v>
       </c>
       <c r="E25">
-        <v>1.06164818878365</v>
+        <v>1.02408979617381</v>
       </c>
       <c r="F25">
-        <v>1.067525147521646</v>
+        <v>1.030781377471172</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038850694144876</v>
+        <v>1.045923245382021</v>
       </c>
       <c r="J25">
-        <v>1.054178405546405</v>
+        <v>1.030034609175343</v>
       </c>
       <c r="K25">
-        <v>1.057104770128204</v>
+        <v>1.038465867082663</v>
       </c>
       <c r="L25">
-        <v>1.06462164045556</v>
+        <v>1.036325314360767</v>
       </c>
       <c r="M25">
-        <v>1.070481201562584</v>
+        <v>1.04291993121344</v>
       </c>
       <c r="N25">
-        <v>1.055675459798234</v>
+        <v>1.031497376466993</v>
       </c>
     </row>
   </sheetData>
